--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/99/word_level_predictions_99.xlsx
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="G92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="G93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -6217,59 +6217,59 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori4/99/word_level_predictions_99.xlsx
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" t="n">
         <v>4</v>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" t="n">
         <v>0</v>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>4</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>4</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6193,83 +6193,83 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>5</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
